--- a/metric_evaluation/results/summ_corr.xlsx
+++ b/metric_evaluation/results/summ_corr.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,304 +1355,361 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>questeval_score</t>
+          <t>qafacteval_score</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1610486220224651</v>
+        <v>0.08286856007233059</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1313620861220275</v>
+        <v>0.08681140779507801</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2224423827035102</v>
+        <v>0.2142293803437095</v>
       </c>
       <c r="E50" t="n">
-        <v>0.148939939001897</v>
+        <v>0.1310542989528773</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>R1_F1</t>
+          <t>questeval_score</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1071064514141759</v>
+        <v>0.1610486220224651</v>
       </c>
       <c r="C51" t="n">
-        <v>0.09328957247736121</v>
+        <v>0.1313620861220275</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0004065857045158672</v>
+        <v>0.2224423827035102</v>
       </c>
       <c r="E51" t="n">
-        <v>0.06465954592808214</v>
+        <v>0.148939939001897</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>R2_F1</t>
+          <t>R1_F1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1142475369582224</v>
+        <v>0.1071064514141759</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1076914021952809</v>
+        <v>0.09328957247736121</v>
       </c>
       <c r="D52" t="n">
-        <v>0.03759555278573154</v>
+        <v>0.0004065857045158672</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1007127004586074</v>
+        <v>0.06465954592808214</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RL_F1</t>
+          <t>R2_F1</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1404601579555463</v>
+        <v>0.1142475369582224</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1489753766348727</v>
+        <v>0.1076914021952809</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04939800958469674</v>
+        <v>0.03759555278573154</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1001796944567995</v>
+        <v>0.1007127004586074</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>s3_score_responsiveness</t>
+          <t>RL_F1</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.162943571883147</v>
+        <v>0.1404601579555463</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1191715561420422</v>
+        <v>0.1489753766348727</v>
       </c>
       <c r="D54" t="n">
-        <v>0.05113386186202398</v>
+        <v>0.04939800958469674</v>
       </c>
       <c r="E54" t="n">
-        <v>0.06950976363630823</v>
+        <v>0.1001796944567995</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>s3_score_pyramid</t>
+          <t>s3_score_responsiveness</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1397623788059695</v>
+        <v>0.162943571883147</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1099778004174609</v>
+        <v>0.1191715561420422</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0350902690851679</v>
+        <v>0.05113386186202398</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0515783972151582</v>
+        <v>0.06950976363630823</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sms_elmo</t>
+          <t>s3_score_pyramid</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1095445901229629</v>
+        <v>0.1397623788059695</v>
       </c>
       <c r="C56" t="n">
-        <v>0.106405191742996</v>
+        <v>0.1099778004174609</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07481657925768989</v>
+        <v>0.0350902690851679</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1416712690243161</v>
+        <v>0.0515783972151582</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sms_glove</t>
+          <t>sms_elmo</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1081989726719435</v>
+        <v>0.1095445901229629</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0811476503448148</v>
+        <v>0.106405191742996</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08362549812199718</v>
+        <v>0.07481657925768989</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1022925881316858</v>
+        <v>0.1416712690243161</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>summa_qa_score_avg_prob</t>
+          <t>sms_glove</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1005445377386213</v>
+        <v>0.1081989726719435</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1163715085572356</v>
+        <v>0.0811476503448148</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1432480482682794</v>
+        <v>0.08362549812199718</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1490434884001591</v>
+        <v>0.1022925881316858</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>summa_qa_score_avg_fscore</t>
+          <t>summac_score_snt</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0989373628149274</v>
+        <v>-0.003385791292446034</v>
       </c>
       <c r="C59" t="n">
-        <v>0.09464414801375487</v>
+        <v>0.01078469352851594</v>
       </c>
       <c r="D59" t="n">
-        <v>0.168988081602107</v>
+        <v>0.1203210584299258</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09630519547364282</v>
+        <v>0.01198246754309926</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>supert_score</t>
+          <t>summac_score_doc</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1668954459226721</v>
+        <v>0.06478445822674805</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1377619714840624</v>
+        <v>0.01399577572002344</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1768641472854814</v>
+        <v>0.174680647309901</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1152399664478116</v>
+        <v>0.0480887390480495</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ter_score</t>
+          <t>summa_qa_score_avg_prob</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.05193828907490512</v>
+        <v>0.1005445377386213</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.0890421697677294</v>
+        <v>0.1163715085572356</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01806636765131637</v>
+        <v>0.1432480482682794</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.1915152937674585</v>
+        <v>0.1490434884001591</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>asp_rel</t>
+          <t>summa_qa_score_avg_fscore</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0.0989373628149274</v>
       </c>
       <c r="C62" t="n">
-        <v>0.2642087419314481</v>
+        <v>0.09464414801375487</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3880474542749159</v>
+        <v>0.168988081602107</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2703032950979907</v>
+        <v>0.09630519547364282</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>self_coh</t>
+          <t>supert_score</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2642087419314481</v>
+        <v>0.1668954459226721</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0.1377619714840624</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5075531123245647</v>
+        <v>0.1768641472854814</v>
       </c>
       <c r="E63" t="n">
-        <v>0.49583753103599</v>
+        <v>0.1152399664478116</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sent_con</t>
+          <t>ter_score</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.3880474542749159</v>
+        <v>-0.05193828907490512</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5075531123245647</v>
+        <v>-0.0890421697677294</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>-0.01806636765131637</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4148298466083865</v>
+        <v>-0.1915152937674585</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>asp_rel</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.2642087419314481</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.3880474542749159</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.2703032950979907</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>self_coh</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.2642087419314481</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5075531123245647</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.49583753103599</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>sent_con</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.3880474542749159</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5075531123245647</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.4148298466083865</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>readblty</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B68" t="n">
         <v>0.2703032950979907</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C68" t="n">
         <v>0.49583753103599</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D68" t="n">
         <v>0.4148298466083865</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E68" t="n">
         <v>1</v>
       </c>
     </row>
